--- a/storage/etcl_child_nutrition.xlsx
+++ b/storage/etcl_child_nutrition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cesu\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A093FA-0ED8-40F2-8258-49490781CD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9368D6D3-2A0F-437C-AE94-99D2B098EB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3983,46 +3983,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4033,6 +4002,37 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -4422,8 +4422,8 @@
   </sheetPr>
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4445,1822 +4445,1822 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="28" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
     </row>
     <row r="2" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="41" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="49" t="s">
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="35" t="s">
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="53" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="38" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="50" t="s">
+      <c r="N3" s="50"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53" t="s">
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="54"/>
-      <c r="X3" s="53" t="s">
+      <c r="W3" s="37"/>
+      <c r="X3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="49" t="s">
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="49" t="s">
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="36"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="54"/>
     </row>
     <row r="4" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="38" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="38" t="s">
+      <c r="Z4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="38" t="s">
+      <c r="AA4" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="38" t="s">
+      <c r="AB4" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AC4" s="38" t="s">
+      <c r="AC4" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="AE4" s="38" t="s">
+      <c r="AE4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AF4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AG4" s="38" t="s">
+      <c r="AG4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AH4" s="38" t="s">
+      <c r="AH4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AI4" s="38" t="s">
+      <c r="AI4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AJ4" s="33" t="s">
+      <c r="AJ4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AK4" s="38" t="s">
+      <c r="AK4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AL4" s="36"/>
+      <c r="AL4" s="54"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="36"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="54"/>
     </row>
     <row r="6" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="36"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="54"/>
     </row>
     <row r="7" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="36"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="54"/>
     </row>
     <row r="8" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="36"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="54"/>
     </row>
     <row r="9" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="36"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="54"/>
     </row>
     <row r="10" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="36"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="54"/>
     </row>
     <row r="11" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="36"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="54"/>
     </row>
     <row r="12" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="36"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="54"/>
     </row>
     <row r="13" spans="1:38" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="37"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="55"/>
     </row>
     <row r="14" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
     </row>
     <row r="15" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
     </row>
     <row r="16" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
     </row>
     <row r="17" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
     </row>
     <row r="18" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
     </row>
     <row r="19" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
     </row>
     <row r="20" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
     </row>
     <row r="21" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
     </row>
     <row r="22" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="39"/>
-      <c r="AL22" s="39"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
     </row>
     <row r="23" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
     </row>
     <row r="24" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
     </row>
     <row r="25" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="29"/>
     </row>
     <row r="26" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="39"/>
-      <c r="AL26" s="39"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
     </row>
     <row r="27" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="34"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
     </row>
     <row r="28" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="39"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
     </row>
     <row r="29" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="34"/>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="34"/>
-      <c r="AL29" s="34"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
     </row>
     <row r="30" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="28"/>
+      <c r="AL30" s="28"/>
     </row>
     <row r="31" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="29"/>
     </row>
     <row r="32" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="28"/>
     </row>
     <row r="33" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
-      <c r="AK33" s="34"/>
-      <c r="AL33" s="34"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
     </row>
     <row r="34" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="39"/>
-      <c r="AI34" s="39"/>
-      <c r="AJ34" s="39"/>
-      <c r="AK34" s="39"/>
-      <c r="AL34" s="39"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
     </row>
     <row r="35" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="34"/>
-      <c r="AE35" s="34"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="34"/>
-      <c r="AL35" s="34"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="29"/>
     </row>
     <row r="36" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="39"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="39"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="28"/>
+      <c r="AK36" s="28"/>
+      <c r="AL36" s="28"/>
     </row>
     <row r="37" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="34"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="29"/>
     </row>
     <row r="38" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="39"/>
-      <c r="AB38" s="39"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
-      <c r="AH38" s="39"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="39"/>
-      <c r="AK38" s="39"/>
-      <c r="AL38" s="39"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
+      <c r="AJ38" s="28"/>
+      <c r="AK38" s="28"/>
+      <c r="AL38" s="28"/>
     </row>
     <row r="39" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
-      <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="29"/>
+      <c r="AK39" s="29"/>
+      <c r="AL39" s="29"/>
     </row>
     <row r="40" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="40"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="39"/>
-      <c r="AC40" s="39"/>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="39"/>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="39"/>
-      <c r="AH40" s="39"/>
-      <c r="AI40" s="39"/>
-      <c r="AJ40" s="39"/>
-      <c r="AK40" s="39"/>
-      <c r="AL40" s="39"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
     </row>
     <row r="41" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="34"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="29"/>
+      <c r="AK41" s="29"/>
+      <c r="AL41" s="29"/>
     </row>
     <row r="42" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="40"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="39"/>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="39"/>
-      <c r="AC42" s="39"/>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="39"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="39"/>
-      <c r="AH42" s="39"/>
-      <c r="AI42" s="39"/>
-      <c r="AJ42" s="39"/>
-      <c r="AK42" s="39"/>
-      <c r="AL42" s="39"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
+      <c r="AK42" s="28"/>
+      <c r="AL42" s="28"/>
     </row>
     <row r="43" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="34"/>
-      <c r="AL43" s="34"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="29"/>
+      <c r="AK43" s="29"/>
+      <c r="AL43" s="29"/>
     </row>
     <row r="44" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
@@ -14124,62 +14124,501 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="604">
-    <mergeCell ref="AC42:AC43"/>
-    <mergeCell ref="AK42:AK43"/>
-    <mergeCell ref="AL42:AL43"/>
-    <mergeCell ref="AD42:AD43"/>
-    <mergeCell ref="AE42:AE43"/>
-    <mergeCell ref="AF42:AF43"/>
-    <mergeCell ref="AG42:AG43"/>
-    <mergeCell ref="AH42:AH43"/>
-    <mergeCell ref="AI42:AI43"/>
-    <mergeCell ref="AJ42:AJ43"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="W42:W43"/>
-    <mergeCell ref="X42:X43"/>
-    <mergeCell ref="Y42:Y43"/>
-    <mergeCell ref="Z42:Z43"/>
-    <mergeCell ref="AA42:AA43"/>
-    <mergeCell ref="AB42:AB43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="AL2:AL13"/>
+    <mergeCell ref="M3:M13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="E2:E13"/>
+    <mergeCell ref="J3:J13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AE23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AH24:AH25"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="AK26:AK27"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AK28:AK29"/>
+    <mergeCell ref="AL28:AL29"/>
+    <mergeCell ref="AD26:AD27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="AH26:AH27"/>
+    <mergeCell ref="AI26:AI27"/>
+    <mergeCell ref="AJ26:AJ27"/>
+    <mergeCell ref="AH28:AH29"/>
+    <mergeCell ref="AI28:AI29"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AA26:AA27"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AC26:AC27"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AF32:AF33"/>
+    <mergeCell ref="AG32:AG33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="AJ32:AJ33"/>
+    <mergeCell ref="AK32:AK33"/>
+    <mergeCell ref="AL32:AL33"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AH32:AH33"/>
+    <mergeCell ref="AI32:AI33"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AK34:AK35"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AL36:AL37"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AF34:AF35"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AH34:AH35"/>
+    <mergeCell ref="AI34:AI35"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AH36:AH37"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AD36:AD37"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AF36:AF37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="AH40:AH41"/>
+    <mergeCell ref="AI40:AI41"/>
+    <mergeCell ref="AA40:AA41"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="AC40:AC41"/>
+    <mergeCell ref="AD40:AD41"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="AF40:AF41"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="Y40:Y41"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="AK38:AK39"/>
+    <mergeCell ref="AL38:AL39"/>
+    <mergeCell ref="AJ40:AJ41"/>
+    <mergeCell ref="AK40:AK41"/>
+    <mergeCell ref="AL40:AL41"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AH38:AH39"/>
+    <mergeCell ref="AI38:AI39"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="F2:F13"/>
+    <mergeCell ref="G2:G13"/>
+    <mergeCell ref="H2:H13"/>
+    <mergeCell ref="I2:I13"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q3"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AK2"/>
+    <mergeCell ref="K3:K13"/>
+    <mergeCell ref="L3:L13"/>
+    <mergeCell ref="N4:N13"/>
+    <mergeCell ref="O4:O13"/>
+    <mergeCell ref="P4:P13"/>
+    <mergeCell ref="Q4:Q13"/>
+    <mergeCell ref="AB4:AB13"/>
+    <mergeCell ref="AC4:AC13"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="R1:AL1"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:W3"/>
@@ -14204,395 +14643,15 @@
     <mergeCell ref="Y4:Y13"/>
     <mergeCell ref="Z4:Z13"/>
     <mergeCell ref="AA4:AA13"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="F2:F13"/>
-    <mergeCell ref="G2:G13"/>
-    <mergeCell ref="H2:H13"/>
-    <mergeCell ref="I2:I13"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q3"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AK2"/>
-    <mergeCell ref="K3:K13"/>
-    <mergeCell ref="L3:L13"/>
-    <mergeCell ref="N4:N13"/>
-    <mergeCell ref="O4:O13"/>
-    <mergeCell ref="P4:P13"/>
-    <mergeCell ref="Q4:Q13"/>
-    <mergeCell ref="AB4:AB13"/>
-    <mergeCell ref="AC4:AC13"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="Y38:Y39"/>
-    <mergeCell ref="Z38:Z39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="AK38:AK39"/>
-    <mergeCell ref="AL38:AL39"/>
-    <mergeCell ref="AJ40:AJ41"/>
-    <mergeCell ref="AK40:AK41"/>
-    <mergeCell ref="AL40:AL41"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="AH38:AH39"/>
-    <mergeCell ref="AI38:AI39"/>
-    <mergeCell ref="AJ38:AJ39"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="AH40:AH41"/>
-    <mergeCell ref="AI40:AI41"/>
-    <mergeCell ref="AA40:AA41"/>
-    <mergeCell ref="AB40:AB41"/>
-    <mergeCell ref="AC40:AC41"/>
-    <mergeCell ref="AD40:AD41"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="AF40:AF41"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="Y40:Y41"/>
-    <mergeCell ref="Z40:Z41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:U41"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="AK34:AK35"/>
-    <mergeCell ref="AL34:AL35"/>
-    <mergeCell ref="AJ36:AJ37"/>
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="AL36:AL37"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AF34:AF35"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AH34:AH35"/>
-    <mergeCell ref="AI34:AI35"/>
-    <mergeCell ref="AJ34:AJ35"/>
-    <mergeCell ref="AH36:AH37"/>
-    <mergeCell ref="AI36:AI37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="AB36:AB37"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AD36:AD37"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AF36:AF37"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="X36:X37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AL30:AL31"/>
-    <mergeCell ref="AJ32:AJ33"/>
-    <mergeCell ref="AK32:AK33"/>
-    <mergeCell ref="AL32:AL33"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AH32:AH33"/>
-    <mergeCell ref="AI32:AI33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AF32:AF33"/>
-    <mergeCell ref="AG32:AG33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AA26:AA27"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AC26:AC27"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="AK26:AK27"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AJ28:AJ29"/>
-    <mergeCell ref="AK28:AK29"/>
-    <mergeCell ref="AL28:AL29"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="AH26:AH27"/>
-    <mergeCell ref="AI26:AI27"/>
-    <mergeCell ref="AJ26:AJ27"/>
-    <mergeCell ref="AH28:AH29"/>
-    <mergeCell ref="AI28:AI29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="AK22:AK23"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AK24:AK25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="AI22:AI23"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AH24:AH25"/>
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="Y20:Y21"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -14608,130 +14667,71 @@
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AF14:AF15"/>
-    <mergeCell ref="AH14:AH15"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="AL2:AL13"/>
-    <mergeCell ref="M3:M13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="E2:E13"/>
-    <mergeCell ref="J3:J13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="W42:W43"/>
+    <mergeCell ref="X42:X43"/>
+    <mergeCell ref="Y42:Y43"/>
+    <mergeCell ref="Z42:Z43"/>
+    <mergeCell ref="AA42:AA43"/>
+    <mergeCell ref="AB42:AB43"/>
+    <mergeCell ref="AC42:AC43"/>
+    <mergeCell ref="AK42:AK43"/>
+    <mergeCell ref="AL42:AL43"/>
+    <mergeCell ref="AD42:AD43"/>
+    <mergeCell ref="AE42:AE43"/>
+    <mergeCell ref="AF42:AF43"/>
+    <mergeCell ref="AG42:AG43"/>
+    <mergeCell ref="AH42:AH43"/>
+    <mergeCell ref="AI42:AI43"/>
+    <mergeCell ref="AJ42:AJ43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup paperSize="14" scale="55" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="55" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" man="1"/>
   </colBreaks>
